--- a/vw-model/tune parameter.xlsx
+++ b/vw-model/tune parameter.xlsx
@@ -469,7 +469,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -684,6 +684,9 @@
       <c r="K5">
         <v>0.5</v>
       </c>
+      <c r="L5">
+        <v>1.7706E-3</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">

--- a/vw-model/tune parameter.xlsx
+++ b/vw-model/tune parameter.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
   <si>
     <t>y33</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>--compressed</t>
+  </si>
+  <si>
+    <t>y29</t>
   </si>
 </sst>
 </file>
@@ -466,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -688,64 +691,99 @@
         <v>1.7706E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
         <v>0.2</v>
       </c>
-      <c r="C7">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E7">
+      <c r="E6">
         <v>28</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F6" t="s">
         <v>13</v>
       </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7">
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6">
         <v>0.8</v>
       </c>
-      <c r="K7">
+      <c r="K6">
         <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>0.2</v>
+      </c>
+      <c r="C8">
         <v>23</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8">
+        <v>0.8</v>
+      </c>
+      <c r="K8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>29</v>
       </c>
     </row>

--- a/vw-model/tune parameter.xlsx
+++ b/vw-model/tune parameter.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
   <si>
     <t>y33</t>
   </si>
@@ -113,7 +113,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +125,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -156,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -165,6 +173,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,7 +481,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,8 +496,8 @@
     <col min="9" max="9" width="12.44140625" customWidth="1"/>
     <col min="10" max="10" width="19.6640625" customWidth="1"/>
     <col min="11" max="11" width="9.33203125" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" customWidth="1"/>
-    <col min="13" max="13" width="9.21875" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="9.21875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -564,10 +573,10 @@
       <c r="K2">
         <v>0.5</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="4">
         <v>5.3542699999999999E-2</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -605,10 +614,10 @@
       <c r="K3">
         <v>0.5</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="4">
         <v>2.52573E-2</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -646,10 +655,10 @@
       <c r="K4">
         <v>0.5</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="4">
         <v>3.1301000000000002E-2</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -687,8 +696,11 @@
       <c r="K5">
         <v>0.5</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="4">
         <v>1.7706E-3</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">

--- a/vw-model/tune parameter.xlsx
+++ b/vw-model/tune parameter.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
   <si>
     <t>y33</t>
   </si>
@@ -481,7 +481,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -737,6 +737,12 @@
       <c r="K6">
         <v>0.5</v>
       </c>
+      <c r="L6" s="4">
+        <v>1.9259800000000001E-2</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">

--- a/vw-model/tune parameter.xlsx
+++ b/vw-model/tune parameter.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
   <si>
     <t>y33</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>y29</t>
+  </si>
+  <si>
+    <t>y32</t>
   </si>
 </sst>
 </file>
@@ -478,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -744,64 +747,105 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
         <v>0.2</v>
       </c>
-      <c r="C8">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E8">
+      <c r="E7">
         <v>28</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F7" t="s">
         <v>13</v>
       </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8">
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7">
         <v>0.8</v>
       </c>
-      <c r="K8">
+      <c r="K7">
         <v>0.5</v>
+      </c>
+      <c r="L7" s="4">
+        <v>9.9590000000000008E-3</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>0.2</v>
+      </c>
+      <c r="C9">
         <v>23</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9">
+        <v>0.8</v>
+      </c>
+      <c r="K9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>29</v>
       </c>
     </row>

--- a/vw-model/tune parameter.xlsx
+++ b/vw-model/tune parameter.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
   <si>
     <t>y33</t>
   </si>
@@ -481,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -849,6 +849,47 @@
         <v>29</v>
       </c>
     </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0.32</v>
+      </c>
+      <c r="C12">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12">
+        <v>0.8</v>
+      </c>
+      <c r="K12">
+        <v>0.5</v>
+      </c>
+      <c r="L12" s="4">
+        <v>5.3567400000000001E-2</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/vw-model/tune parameter.xlsx
+++ b/vw-model/tune parameter.xlsx
@@ -484,7 +484,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -887,7 +887,7 @@
         <v>5.3567400000000001E-2</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/vw-model/tune parameter.xlsx
+++ b/vw-model/tune parameter.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="32">
   <si>
     <t>y33</t>
   </si>
@@ -481,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
@@ -890,6 +890,44 @@
         <v>19</v>
       </c>
     </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0.35</v>
+      </c>
+      <c r="C13">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13">
+        <v>0.8</v>
+      </c>
+      <c r="K13">
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="4">
+        <v>4.5370000000000002E-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/vw-model/tune parameter.xlsx
+++ b/vw-model/tune parameter.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="33">
   <si>
     <t>y33</t>
   </si>
@@ -110,13 +110,16 @@
   </si>
   <si>
     <t>y32</t>
+  </si>
+  <si>
+    <t>y12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +139,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -167,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -177,6 +195,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,85 +562,85 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>0.35</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E2">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="5">
+        <v>28</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2">
+      <c r="G2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="5">
         <v>0.9</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="5">
         <v>0.5</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="6">
         <v>5.3542699999999999E-2</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>0.2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>30</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" s="5">
+        <v>28</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3">
+      <c r="G3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="5">
         <v>0.6</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="5">
         <v>0.5</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="6">
         <v>2.52573E-2</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -788,15 +808,50 @@
         <v>19</v>
       </c>
     </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>0.2</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8">
+        <v>0.9</v>
+      </c>
+      <c r="K8">
+        <v>0.5</v>
+      </c>
+    </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B9">
         <v>0.2</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -817,114 +872,149 @@
         <v>14</v>
       </c>
       <c r="J9">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="K9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>0.2</v>
+      </c>
+      <c r="C11">
         <v>23</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11">
+        <v>0.8</v>
+      </c>
+      <c r="K11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="H12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B12">
+      <c r="B14">
         <v>0.32</v>
       </c>
-      <c r="C12">
+      <c r="C14">
         <v>25</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D14" t="s">
         <v>12</v>
       </c>
-      <c r="E12">
-        <v>28</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E14">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12">
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14">
         <v>0.8</v>
       </c>
-      <c r="K12">
+      <c r="K14">
         <v>0.5</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L14" s="4">
         <v>5.3567400000000001E-2</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>0</v>
       </c>
-      <c r="B13">
+      <c r="B15">
         <v>0.35</v>
       </c>
-      <c r="C13">
+      <c r="C15">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
         <v>12</v>
       </c>
-      <c r="E13">
-        <v>28</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E15">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>13</v>
       </c>
-      <c r="G13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13">
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15">
         <v>0.8</v>
       </c>
-      <c r="K13">
+      <c r="K15">
         <v>0.5</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L15" s="4">
         <v>4.5370000000000002E-3</v>
       </c>
     </row>
